--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -25,42 +25,27 @@
     <t>Vị trí</t>
   </si>
   <si>
-    <t>Loại địa điểm</t>
-  </si>
-  <si>
-    <t>Mô tả ngắn</t>
+    <t>Mô tả</t>
   </si>
   <si>
     <t>Đánh giá</t>
   </si>
   <si>
-    <t>Loại hoạt động</t>
-  </si>
-  <si>
     <t>Ảnh</t>
   </si>
   <si>
     <t>Từ khóa</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Vịnh Hạ Long</t>
   </si>
   <si>
     <t>Quảng Ninh</t>
   </si>
   <si>
-    <t>Thắng cảnh</t>
-  </si>
-  <si>
     <t>Kỳ quan thiên nhiên nổi tiếng thế giới</t>
   </si>
   <si>
-    <t>Thăm quan, Chụp ảnh</t>
-  </si>
-  <si>
     <t>https://example.com/img1</t>
   </si>
   <si>
@@ -73,19 +58,13 @@
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>Di tích lịch sử</t>
-  </si>
-  <si>
     <t>Ngôi chùa độc đáo có lịch sử lâu đời</t>
   </si>
   <si>
-    <t>Thăm quan, Văn hóa</t>
-  </si>
-  <si>
     <t>https://example.com/img2</t>
   </si>
   <si>
-    <t>"văn hóa", "lịch sử", "chùa", 'biển'</t>
+    <t>"văn hóa", "lịch sử", "chùa", "biển", "thăm quan"</t>
   </si>
   <si>
     <t>Phong Nha - Kẻ Bàng</t>
@@ -94,19 +73,28 @@
     <t>Quảng Bình</t>
   </si>
   <si>
-    <t>Khu nghỉ dưỡng</t>
-  </si>
-  <si>
     <t>Vườn quốc gia với các hang động nổi tiếng</t>
   </si>
   <si>
-    <t>Khám phá, Thám hiểm</t>
-  </si>
-  <si>
     <t>https://example.com/img3</t>
   </si>
   <si>
-    <t>"khám phá", "hang động", "núi"</t>
+    <t>"khám phá", "hang động", "núi", "thám hiểm"</t>
+  </si>
+  <si>
+    <t>Chùa Dơi</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Ngôi chùa có nhiều dơi và lâu đời</t>
+  </si>
+  <si>
+    <t>https://example.com/img4</t>
+  </si>
+  <si>
+    <t>"văn hóa", "lịch sử", "chùa",  "thăm quan"</t>
   </si>
   <si>
     <t>Đà Lạt</t>
@@ -118,13 +106,7 @@
     <t>Thành phố ngàn hoa với khí hậu mát mẻ</t>
   </si>
   <si>
-    <t>Thăm quan, Nghỉ dưỡng</t>
-  </si>
-  <si>
-    <t>https://example.com/img4</t>
-  </si>
-  <si>
-    <t>"hoa", "khí hậu", "nhiệt đới"</t>
+    <t>"hoa", "khí hậu", "nhiệt đới", "thăm quan", "nghỉ dưỡng"</t>
   </si>
 </sst>
 </file>
@@ -149,7 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -214,9 +196,6 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -229,17 +208,20 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,22 +525,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="41.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="37.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -574,151 +553,127 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
         <v>4.6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E5" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7">
-        <v>4.9</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="E6" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\RS_ExploreVN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C942F15-EEA9-40D4-9FB3-607A58FFE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +52,6 @@
     <t>Kỳ quan thiên nhiên nổi tiếng thế giới</t>
   </si>
   <si>
-    <t>https://example.com/img1</t>
-  </si>
-  <si>
     <t>"thăm quan", "chụp ảnh", "biển"</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Ngôi chùa độc đáo có lịch sử lâu đời</t>
   </si>
   <si>
-    <t>https://example.com/img2</t>
-  </si>
-  <si>
     <t>"văn hóa", "lịch sử", "chùa", "biển", "thăm quan"</t>
   </si>
   <si>
@@ -76,9 +76,6 @@
     <t>Vườn quốc gia với các hang động nổi tiếng</t>
   </si>
   <si>
-    <t>https://example.com/img3</t>
-  </si>
-  <si>
     <t>"khám phá", "hang động", "núi", "thám hiểm"</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Ngôi chùa có nhiều dơi và lâu đời</t>
   </si>
   <si>
-    <t>https://example.com/img4</t>
-  </si>
-  <si>
     <t>"văn hóa", "lịch sử", "chùa",  "thăm quan"</t>
   </si>
   <si>
@@ -107,13 +101,27 @@
   </si>
   <si>
     <t>"hoa", "khí hậu", "nhiệt đới", "thăm quan", "nghỉ dưỡng"</t>
+  </si>
+  <si>
+    <t>https://tructhang.vn/wp-content/uploads/2022/08/Vinh-Ha-Long.jpg</t>
+  </si>
+  <si>
+    <t>https://bangladeshembassy.vn/wp-content/uploads/2023/07/chua-mot-cot-o-dau-3.png</t>
+  </si>
+  <si>
+    <t>https://nld.mediacdn.vn/291774122806476800/2021/12/20/7-cai-nhat-cua-phong-nha-ke-bang-1639936654793597781412.jpg</t>
+  </si>
+  <si>
+    <t>https://tourdulichmientay.vn/wp-content/uploads/2020/09/chua-doi-soc-trang-1.jpg</t>
+  </si>
+  <si>
+    <t>https://t2.ex-cdn.com/crystalbay.com/resize/1860x570/files/news/2024/05/13/cam-nang-du-lich-da-lat-tu-a-z-manh-dat-gay-thuong-nho-cua-lam-dong-150548.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,9 +146,10 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,56 +191,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -242,10 +247,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -283,71 +288,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,7 +380,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -398,11 +403,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -411,13 +416,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -427,7 +432,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -436,7 +441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -445,7 +450,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -453,10 +458,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -521,26 +526,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="41.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,120 +570,129 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4.8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6">
-        <v>4.9</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="E6" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{46BD03AD-748F-4EFE-B570-0C245C0BD581}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{F1D825D3-AFB0-4E77-B6A2-9BD6BF0C419C}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A4926E70-1242-4C2A-97BA-9730BE0BE896}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{236F232A-F6A6-496A-9ED4-56B4131B5226}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{362502BE-C090-4422-B6F9-3CB4D3B14881}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\RS_ExploreVN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C942F15-EEA9-40D4-9FB3-607A58FFE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +46,9 @@
     <t>Kỳ quan thiên nhiên nổi tiếng thế giới</t>
   </si>
   <si>
+    <t>https://example.com/img1</t>
+  </si>
+  <si>
     <t>"thăm quan", "chụp ảnh", "biển"</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>Ngôi chùa độc đáo có lịch sử lâu đời</t>
   </si>
   <si>
+    <t>https://example.com/img2</t>
+  </si>
+  <si>
     <t>"văn hóa", "lịch sử", "chùa", "biển", "thăm quan"</t>
   </si>
   <si>
@@ -76,6 +76,9 @@
     <t>Vườn quốc gia với các hang động nổi tiếng</t>
   </si>
   <si>
+    <t>https://example.com/img3</t>
+  </si>
+  <si>
     <t>"khám phá", "hang động", "núi", "thám hiểm"</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>Ngôi chùa có nhiều dơi và lâu đời</t>
   </si>
   <si>
+    <t>https://example.com/img4</t>
+  </si>
+  <si>
     <t>"văn hóa", "lịch sử", "chùa",  "thăm quan"</t>
   </si>
   <si>
@@ -101,27 +107,13 @@
   </si>
   <si>
     <t>"hoa", "khí hậu", "nhiệt đới", "thăm quan", "nghỉ dưỡng"</t>
-  </si>
-  <si>
-    <t>https://tructhang.vn/wp-content/uploads/2022/08/Vinh-Ha-Long.jpg</t>
-  </si>
-  <si>
-    <t>https://bangladeshembassy.vn/wp-content/uploads/2023/07/chua-mot-cot-o-dau-3.png</t>
-  </si>
-  <si>
-    <t>https://nld.mediacdn.vn/291774122806476800/2021/12/20/7-cai-nhat-cua-phong-nha-ke-bang-1639936654793597781412.jpg</t>
-  </si>
-  <si>
-    <t>https://tourdulichmientay.vn/wp-content/uploads/2020/09/chua-doi-soc-trang-1.jpg</t>
-  </si>
-  <si>
-    <t>https://t2.ex-cdn.com/crystalbay.com/resize/1860x570/files/news/2024/05/13/cam-nang-du-lich-da-lat-tu-a-z-manh-dat-gay-thuong-nho-cua-lam-dong-150548.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,10 +138,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,52 +182,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -247,10 +242,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -288,71 +283,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,7 +375,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -403,11 +398,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -416,13 +411,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -432,7 +427,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -441,7 +436,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -450,7 +445,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -458,10 +453,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -526,28 +521,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="41.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="37.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,129 +563,120 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>4.8</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="6">
+        <v>4.6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E6" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{46BD03AD-748F-4EFE-B570-0C245C0BD581}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{F1D825D3-AFB0-4E77-B6A2-9BD6BF0C419C}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{A4926E70-1242-4C2A-97BA-9730BE0BE896}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{236F232A-F6A6-496A-9ED4-56B4131B5226}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{362502BE-C090-4422-B6F9-3CB4D3B14881}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -46,7 +46,7 @@
     <t>Kỳ quan thiên nhiên nổi tiếng thế giới</t>
   </si>
   <si>
-    <t>https://example.com/img1</t>
+    <t>https://tructhang.vn/wp-content/uploads/2022/08/Vinh-Ha-Long.jpg</t>
   </si>
   <si>
     <t>"thăm quan", "chụp ảnh", "biển"</t>
@@ -61,7 +61,7 @@
     <t>Ngôi chùa độc đáo có lịch sử lâu đời</t>
   </si>
   <si>
-    <t>https://example.com/img2</t>
+    <t>https://bangladeshembassy.vn/wp-content/uploads/2023/07/chua-mot-cot-o-dau-3.png</t>
   </si>
   <si>
     <t>"văn hóa", "lịch sử", "chùa", "biển", "thăm quan"</t>
@@ -76,7 +76,7 @@
     <t>Vườn quốc gia với các hang động nổi tiếng</t>
   </si>
   <si>
-    <t>https://example.com/img3</t>
+    <t>https://nld.mediacdn.vn/291774122806476800/2021/12/20/7-cai-nhat-cua-phong-nha-ke-bang-1639936654793597781412.jpg</t>
   </si>
   <si>
     <t>"khám phá", "hang động", "núi", "thám hiểm"</t>
@@ -85,13 +85,13 @@
     <t>Chùa Dơi</t>
   </si>
   <si>
-    <t>Sóc Trăng</t>
+    <t>Thanh pho Ho Chi Minh</t>
   </si>
   <si>
     <t>Ngôi chùa có nhiều dơi và lâu đời</t>
   </si>
   <si>
-    <t>https://example.com/img4</t>
+    <t>https://tourdulichmientay.vn/wp-content/uploads/2020/09/chua-doi-soc-trang-1.jpg</t>
   </si>
   <si>
     <t>"văn hóa", "lịch sử", "chùa",  "thăm quan"</t>
@@ -100,10 +100,10 @@
     <t>Đà Lạt</t>
   </si>
   <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
     <t>Thành phố ngàn hoa với khí hậu mát mẻ</t>
+  </si>
+  <si>
+    <t>https://t2.ex-cdn.com/crystalbay.com/resize/1860x570/files/news/2024/05/13/cam-nang-du-lich-da-lat-tu-a-z-manh-dat-gay-thuong-nho-cua-lam-dong-150548.jpg</t>
   </si>
   <si>
     <t>"hoa", "khí hậu", "nhiệt đới", "thăm quan", "nghỉ dưỡng"</t>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,9 +207,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -531,13 +528,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="41.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="41.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="37.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -632,8 +629,10 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
@@ -653,24 +652,24 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="6">
         <v>4.7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>30</v>
